--- a/BackTest/2019-10-30 BackTest EOS.xlsx
+++ b/BackTest/2019-10-30 BackTest EOS.xlsx
@@ -4345,7 +4345,7 @@
         <v>28740.01315389001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>13533.01555389001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>5734.338553890009</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>10344.39025389001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>16107.91145389001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>16107.91145389001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>41387.16028853001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>19930.02949554001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>7291.262493920009</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>7958.432693920009</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>7958.432693920009</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>7318.628393920009</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>14161.20199392001</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>33233.27050831001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>27970.27290831001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>12582.87415274001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>31266.30904569001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>30800.43294569</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>30800.43294569</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>31244.89954866</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>30938.49974866</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>34097.79684866</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>29455.73154866</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>27918.88994866</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>26292.66344866</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>21914.04570563</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>19451.85050563</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>23077.68510563</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>22177.69398238</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>28927.35768238</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>28927.35768238</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>29568.51398237999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>19212.86005075999</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>49386.11049548</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>62998.70609222</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>60981.56409222</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>46990.35839222</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>51870.11419222</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>84801.47169221999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>84801.47169221999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>77368.43859221999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>82164.96219221999</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>80038.99569221999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>72165.08629221999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>72003.23749221998</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>71824.81599221998</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>72164.41719221999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>72164.41719221999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>68221.50499221998</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>67176.22269221998</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>67176.22269221998</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>85361.20849221997</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>80937.37719221997</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>89912.27109221996</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>98795.94079221996</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>105065.24259222</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>126010.15939222</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>118871.67159222</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>118871.67159222</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>118871.67159222</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>118871.67159222</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>113615.34529222</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>117232.61299222</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>106510.91599222</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>105817.35709222</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>112875.10299222</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>113891.06259222</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>114274.83469222</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>112881.27049222</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>112432.51859222</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>-151383.20997873</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33286,7 +33286,7 @@
         <v>-160033.84697873</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34870,10 +34870,14 @@
         <v>-187026.73845404</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>3908</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>3908</v>
+      </c>
       <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
@@ -34903,11 +34907,19 @@
         <v>-187026.73845404</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>3908</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>3908</v>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -34939,8 +34951,14 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="J1047" t="n">
+        <v>3908</v>
+      </c>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35101,10 +35119,14 @@
         <v>-184885.49825404</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>3907</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>3907</v>
+      </c>
       <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
@@ -35134,11 +35156,19 @@
         <v>-184966.20405404</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>3912</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35167,11 +35197,19 @@
         <v>-184966.20405404</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>3908</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35200,11 +35238,19 @@
         <v>-185279.11755404</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>3908</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35233,11 +35279,19 @@
         <v>-185279.11755404</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>3906</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35266,11 +35320,19 @@
         <v>-184389.05555404</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>3906</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35299,11 +35361,19 @@
         <v>-182979.06645404</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>3914</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35332,11 +35402,19 @@
         <v>-182849.06645404</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>3917</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35368,8 +35446,14 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="J1060" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35401,8 +35485,14 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="J1061" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35434,8 +35524,14 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="J1062" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35467,8 +35563,14 @@
         <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="J1063" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35500,8 +35602,14 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="J1064" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35533,8 +35641,14 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="J1065" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35566,8 +35680,14 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="J1066" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35602,9 +35722,13 @@
         <v>3932</v>
       </c>
       <c r="J1067" t="n">
-        <v>3932</v>
-      </c>
-      <c r="K1067" t="inlineStr"/>
+        <v>3907</v>
+      </c>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35637,11 +35761,11 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1068" t="n">
@@ -35672,11 +35796,13 @@
         <v>-177396.24745404</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>3934</v>
+      </c>
       <c r="J1069" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1069" t="inlineStr">
         <is>
@@ -35711,13 +35837,11 @@
         <v>-177393.04445404</v>
       </c>
       <c r="H1070" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1070" t="n">
-        <v>3931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1070" t="inlineStr">
         <is>
@@ -35758,7 +35882,7 @@
         <v>3933</v>
       </c>
       <c r="J1071" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1071" t="inlineStr">
         <is>
@@ -35793,13 +35917,11 @@
         <v>-178141.53585404</v>
       </c>
       <c r="H1072" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1072" t="n">
-        <v>3933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1072" t="inlineStr">
         <is>
@@ -35840,7 +35962,7 @@
         <v>3930</v>
       </c>
       <c r="J1073" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1073" t="inlineStr">
         <is>
@@ -35881,7 +36003,7 @@
         <v>3928</v>
       </c>
       <c r="J1074" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1074" t="inlineStr">
         <is>
@@ -35916,11 +36038,13 @@
         <v>-177920.25112328</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>3933</v>
+      </c>
       <c r="J1075" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1075" t="inlineStr">
         <is>
@@ -35955,11 +36079,13 @@
         <v>-179763.57112328</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>3930</v>
+      </c>
       <c r="J1076" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1076" t="inlineStr">
         <is>
@@ -35994,11 +36120,13 @@
         <v>-180533.92352328</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>3928</v>
+      </c>
       <c r="J1077" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1077" t="inlineStr">
         <is>
@@ -36033,11 +36161,13 @@
         <v>-182820.53102328</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>3918</v>
+      </c>
       <c r="J1078" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1078" t="inlineStr">
         <is>
@@ -36072,11 +36202,13 @@
         <v>-182820.53102328</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>3916</v>
+      </c>
       <c r="J1079" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1079" t="inlineStr">
         <is>
@@ -36111,11 +36243,13 @@
         <v>-182508.32752328</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>3916</v>
+      </c>
       <c r="J1080" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1080" t="inlineStr">
         <is>
@@ -36150,11 +36284,13 @@
         <v>-182428.32752328</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>3918</v>
+      </c>
       <c r="J1081" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1081" t="inlineStr">
         <is>
@@ -36189,11 +36325,13 @@
         <v>-182811.23952328</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>3924</v>
+      </c>
       <c r="J1082" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1082" t="inlineStr">
         <is>
@@ -36228,11 +36366,13 @@
         <v>-182811.23952328</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>3921</v>
+      </c>
       <c r="J1083" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1083" t="inlineStr">
         <is>
@@ -36267,11 +36407,13 @@
         <v>-182462.87082328</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>3921</v>
+      </c>
       <c r="J1084" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1084" t="inlineStr">
         <is>
@@ -36306,11 +36448,13 @@
         <v>-182216.28892328</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>3924</v>
+      </c>
       <c r="J1085" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1085" t="inlineStr">
         <is>
@@ -36345,11 +36489,13 @@
         <v>-182644.45762328</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>3928</v>
+      </c>
       <c r="J1086" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1086" t="inlineStr">
         <is>
@@ -36384,11 +36530,13 @@
         <v>-182574.79672328</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>3925</v>
+      </c>
       <c r="J1087" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1087" t="inlineStr">
         <is>
@@ -36423,11 +36571,13 @@
         <v>-182624.79662328</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>3928</v>
+      </c>
       <c r="J1088" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1088" t="inlineStr">
         <is>
@@ -36462,11 +36612,13 @@
         <v>-182624.79662328</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>3927</v>
+      </c>
       <c r="J1089" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1089" t="inlineStr">
         <is>
@@ -36501,11 +36653,13 @@
         <v>-177734.31042328</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>3927</v>
+      </c>
       <c r="J1090" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1090" t="inlineStr">
         <is>
@@ -36540,11 +36694,13 @@
         <v>-179362.47902328</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>3928</v>
+      </c>
       <c r="J1091" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1091" t="inlineStr">
         <is>
@@ -36579,11 +36735,13 @@
         <v>-179636.68552328</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>3922</v>
+      </c>
       <c r="J1092" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1092" t="inlineStr">
         <is>
@@ -36618,11 +36776,13 @@
         <v>-179820.24702328</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>3921</v>
+      </c>
       <c r="J1093" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1093" t="inlineStr">
         <is>
@@ -36657,11 +36817,13 @@
         <v>-179887.68152328</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>3920</v>
+      </c>
       <c r="J1094" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1094" t="inlineStr">
         <is>
@@ -36696,11 +36858,13 @@
         <v>-179893.98672328</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>3917</v>
+      </c>
       <c r="J1095" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1095" t="inlineStr">
         <is>
@@ -36735,11 +36899,13 @@
         <v>-178621.6653232801</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>3916</v>
+      </c>
       <c r="J1096" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1096" t="inlineStr">
         <is>
@@ -36774,11 +36940,13 @@
         <v>-178620.4540232801</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>3921</v>
+      </c>
       <c r="J1097" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1097" t="inlineStr">
         <is>
@@ -36813,11 +36981,13 @@
         <v>-182822.7727232801</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>3923</v>
+      </c>
       <c r="J1098" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1098" t="inlineStr">
         <is>
@@ -36852,11 +37022,13 @@
         <v>-181973.0835232801</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>3922</v>
+      </c>
       <c r="J1099" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1099" t="inlineStr">
         <is>
@@ -36891,11 +37063,13 @@
         <v>-179953.4670232801</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>3926</v>
+      </c>
       <c r="J1100" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1100" t="inlineStr">
         <is>
@@ -36930,11 +37104,13 @@
         <v>-178590.9334232801</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>3929</v>
+      </c>
       <c r="J1101" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1101" t="inlineStr">
         <is>
@@ -36969,11 +37145,13 @@
         <v>-164756.4386232801</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>3936</v>
+      </c>
       <c r="J1102" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1102" t="inlineStr">
         <is>
@@ -37008,11 +37186,13 @@
         <v>-164936.4207232801</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>3957</v>
+      </c>
       <c r="J1103" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1103" t="inlineStr">
         <is>
@@ -37047,11 +37227,13 @@
         <v>-164724.6791232801</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>3956</v>
+      </c>
       <c r="J1104" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1104" t="inlineStr">
         <is>
@@ -37086,11 +37268,13 @@
         <v>-164724.5520232801</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>3960</v>
+      </c>
       <c r="J1105" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1105" t="inlineStr">
         <is>
@@ -37129,7 +37313,7 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1106" t="inlineStr">
         <is>
@@ -37168,7 +37352,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1107" t="inlineStr">
         <is>
@@ -37207,7 +37391,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1108" t="inlineStr">
         <is>
@@ -37246,7 +37430,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1109" t="inlineStr">
         <is>
@@ -37285,7 +37469,7 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1110" t="inlineStr">
         <is>
@@ -37320,11 +37504,13 @@
         <v>-165871.3291187101</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>3953</v>
+      </c>
       <c r="J1111" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1111" t="inlineStr">
         <is>
@@ -37363,7 +37549,7 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1112" t="inlineStr">
         <is>
@@ -37402,7 +37588,7 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1113" t="inlineStr">
         <is>
@@ -37441,7 +37627,7 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1114" t="inlineStr">
         <is>
@@ -37480,7 +37666,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1115" t="inlineStr">
         <is>
@@ -37519,7 +37705,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1116" t="inlineStr">
         <is>
@@ -37558,7 +37744,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1117" t="inlineStr">
         <is>
@@ -37597,7 +37783,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1118" t="inlineStr">
         <is>
@@ -37636,7 +37822,7 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1119" t="inlineStr">
         <is>
@@ -37675,7 +37861,7 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1120" t="inlineStr">
         <is>
@@ -37714,7 +37900,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1121" t="inlineStr">
         <is>
@@ -37753,7 +37939,7 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1122" t="inlineStr">
         <is>
@@ -37792,7 +37978,7 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1123" t="inlineStr">
         <is>
@@ -37831,7 +38017,7 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1124" t="inlineStr">
         <is>
@@ -37870,7 +38056,7 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1125" t="inlineStr">
         <is>
@@ -37909,7 +38095,7 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1126" t="inlineStr">
         <is>
@@ -37948,7 +38134,7 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1127" t="inlineStr">
         <is>
@@ -37987,7 +38173,7 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1128" t="inlineStr">
         <is>
@@ -38026,7 +38212,7 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1129" t="inlineStr">
         <is>
@@ -38065,7 +38251,7 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1130" t="inlineStr">
         <is>
@@ -38104,7 +38290,7 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1131" t="inlineStr">
         <is>
@@ -38143,7 +38329,7 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1132" t="inlineStr">
         <is>
@@ -38182,7 +38368,7 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1133" t="inlineStr">
         <is>
@@ -38221,7 +38407,7 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1134" t="inlineStr">
         <is>
@@ -38260,7 +38446,7 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1135" t="inlineStr">
         <is>
@@ -38299,7 +38485,7 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1136" t="inlineStr">
         <is>
@@ -38338,7 +38524,7 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1137" t="inlineStr">
         <is>
@@ -38377,7 +38563,7 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1138" t="inlineStr">
         <is>
@@ -38416,7 +38602,7 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1139" t="inlineStr">
         <is>
@@ -38455,7 +38641,7 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1140" t="inlineStr">
         <is>
@@ -38494,7 +38680,7 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1141" t="inlineStr">
         <is>
@@ -38533,7 +38719,7 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1142" t="inlineStr">
         <is>
@@ -38572,7 +38758,7 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1143" t="inlineStr">
         <is>
@@ -38611,7 +38797,7 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1144" t="inlineStr">
         <is>
@@ -38650,7 +38836,7 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1145" t="inlineStr">
         <is>
@@ -38689,7 +38875,7 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1146" t="inlineStr">
         <is>
@@ -38728,7 +38914,7 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1147" t="inlineStr">
         <is>
@@ -38767,7 +38953,7 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1148" t="inlineStr">
         <is>
@@ -38806,7 +38992,7 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1149" t="inlineStr">
         <is>
@@ -38845,7 +39031,7 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1150" t="inlineStr">
         <is>
@@ -38884,7 +39070,7 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1151" t="inlineStr">
         <is>
@@ -38923,7 +39109,7 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1152" t="inlineStr">
         <is>
@@ -38962,7 +39148,7 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1153" t="inlineStr">
         <is>
@@ -39001,7 +39187,7 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1154" t="inlineStr">
         <is>
@@ -39040,7 +39226,7 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1155" t="inlineStr">
         <is>
@@ -39079,7 +39265,7 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1156" t="inlineStr">
         <is>
@@ -39118,7 +39304,7 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1157" t="inlineStr">
         <is>
@@ -39157,7 +39343,7 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1158" t="inlineStr">
         <is>
@@ -39196,7 +39382,7 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1159" t="inlineStr">
         <is>
@@ -39235,7 +39421,7 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -39274,7 +39460,7 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1161" t="inlineStr">
         <is>
@@ -39313,7 +39499,7 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1162" t="inlineStr">
         <is>
@@ -39352,7 +39538,7 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1163" t="inlineStr">
         <is>
@@ -39391,7 +39577,7 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -39430,7 +39616,7 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -39469,7 +39655,7 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -39508,7 +39694,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1167" t="inlineStr">
         <is>
@@ -39547,7 +39733,7 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -39586,7 +39772,7 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1169" t="inlineStr">
         <is>
@@ -39625,7 +39811,7 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1170" t="inlineStr">
         <is>
@@ -39664,7 +39850,7 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -39703,7 +39889,7 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -39742,7 +39928,7 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1173" t="inlineStr">
         <is>
@@ -39781,7 +39967,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1174" t="inlineStr">
         <is>
@@ -39820,7 +40006,7 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1175" t="inlineStr">
         <is>
@@ -39859,7 +40045,7 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
@@ -39898,7 +40084,7 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1177" t="inlineStr">
         <is>
@@ -39937,7 +40123,7 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1178" t="inlineStr">
         <is>
@@ -39976,7 +40162,7 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1179" t="inlineStr">
         <is>
@@ -40015,7 +40201,7 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1180" t="inlineStr">
         <is>
@@ -40054,7 +40240,7 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1181" t="inlineStr">
         <is>
@@ -40093,7 +40279,7 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1182" t="inlineStr">
         <is>
@@ -40132,7 +40318,7 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1183" t="inlineStr">
         <is>
@@ -40171,7 +40357,7 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1184" t="inlineStr">
         <is>
@@ -40210,7 +40396,7 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1185" t="inlineStr">
         <is>
@@ -40249,7 +40435,7 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1186" t="inlineStr">
         <is>
@@ -40288,7 +40474,7 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1187" t="inlineStr">
         <is>
@@ -40327,7 +40513,7 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1188" t="inlineStr">
         <is>
@@ -40366,7 +40552,7 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1189" t="inlineStr">
         <is>
@@ -40405,7 +40591,7 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1190" t="inlineStr">
         <is>
@@ -40444,7 +40630,7 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1191" t="inlineStr">
         <is>
@@ -40483,7 +40669,7 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1192" t="inlineStr">
         <is>
@@ -40522,7 +40708,7 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1193" t="inlineStr">
         <is>
@@ -40557,11 +40743,13 @@
         <v>-161348.7741376502</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>3932</v>
+      </c>
       <c r="J1194" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1194" t="inlineStr">
         <is>
@@ -40596,11 +40784,13 @@
         <v>-162346.4031376501</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>3931</v>
+      </c>
       <c r="J1195" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1195" t="inlineStr">
         <is>
@@ -40635,11 +40825,13 @@
         <v>-162350.5231376501</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>3929</v>
+      </c>
       <c r="J1196" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1196" t="inlineStr">
         <is>
@@ -40674,11 +40866,13 @@
         <v>-162347.5231376501</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>3928</v>
+      </c>
       <c r="J1197" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1197" t="inlineStr">
         <is>
@@ -40713,11 +40907,13 @@
         <v>-162347.5231376501</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>3929</v>
+      </c>
       <c r="J1198" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1198" t="inlineStr">
         <is>
@@ -40752,11 +40948,13 @@
         <v>-164237.4948376501</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>3929</v>
+      </c>
       <c r="J1199" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1199" t="inlineStr">
         <is>
@@ -40791,11 +40989,13 @@
         <v>-168134.6041376501</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>3926</v>
+      </c>
       <c r="J1200" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1200" t="inlineStr">
         <is>
@@ -40830,11 +41030,13 @@
         <v>-168134.6041376501</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>3922</v>
+      </c>
       <c r="J1201" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1201" t="inlineStr">
         <is>
@@ -40869,11 +41071,13 @@
         <v>-167595.0018376501</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>3922</v>
+      </c>
       <c r="J1202" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1202" t="inlineStr">
         <is>
@@ -40908,11 +41112,13 @@
         <v>-172724.5423376501</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>3923</v>
+      </c>
       <c r="J1203" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1203" t="inlineStr">
         <is>
@@ -40947,11 +41153,13 @@
         <v>-172720.4123376501</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>3918</v>
+      </c>
       <c r="J1204" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1204" t="inlineStr">
         <is>
@@ -40986,11 +41194,13 @@
         <v>-172720.4123376501</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>3920</v>
+      </c>
       <c r="J1205" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1205" t="inlineStr">
         <is>
@@ -41025,11 +41235,13 @@
         <v>-172872.0523376502</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>3920</v>
+      </c>
       <c r="J1206" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1206" t="inlineStr">
         <is>
@@ -41064,11 +41276,13 @@
         <v>-173240.5287376502</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>3917</v>
+      </c>
       <c r="J1207" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1207" t="inlineStr">
         <is>
@@ -41103,11 +41317,13 @@
         <v>-174733.9810376502</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>3916</v>
+      </c>
       <c r="J1208" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1208" t="inlineStr">
         <is>
@@ -41142,11 +41358,13 @@
         <v>-174557.1232469702</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>3915</v>
+      </c>
       <c r="J1209" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1209" t="inlineStr">
         <is>
@@ -41181,11 +41399,13 @@
         <v>-177416.8845469702</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>3920</v>
+      </c>
       <c r="J1210" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1210" t="inlineStr">
         <is>
@@ -41220,11 +41440,13 @@
         <v>-177786.5375469702</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>3916</v>
+      </c>
       <c r="J1211" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1211" t="inlineStr">
         <is>
@@ -41259,11 +41481,13 @@
         <v>-179054.2951469702</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>3914</v>
+      </c>
       <c r="J1212" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1212" t="inlineStr">
         <is>
@@ -41298,11 +41522,13 @@
         <v>-176323.0421469702</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>3913</v>
+      </c>
       <c r="J1213" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1213" t="inlineStr">
         <is>
@@ -41337,11 +41563,13 @@
         <v>-178002.1184469702</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>3915</v>
+      </c>
       <c r="J1214" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1214" t="inlineStr">
         <is>
@@ -41376,11 +41604,13 @@
         <v>-178002.1184469702</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>3910</v>
+      </c>
       <c r="J1215" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1215" t="inlineStr">
         <is>
@@ -41415,11 +41645,13 @@
         <v>-176405.2410469702</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>3910</v>
+      </c>
       <c r="J1216" t="n">
-        <v>3932</v>
+        <v>3907</v>
       </c>
       <c r="K1216" t="inlineStr">
         <is>
